--- a/experiment_results/6462P29.xlsx
+++ b/experiment_results/6462P29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1022"/>
+  <dimension ref="A1:I1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Wildlife Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking', 'Culinary Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P4</t>
+          <t>PRODUCTCODE: 57338P4</t>
         </is>
       </c>
       <c r="B822" t="inlineStr"/>
@@ -12832,7 +12832,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Summarized description: 2 hour guided Segway tour showcases Austin's top destinations. Stop at Austin's newly built $125M DT public library w/ amazing 360º city views.</t>
+          <t>Summarized description: Family-friendly biker gang. It's the most fun you can have on two wheels. Unleash a little of your “bad” side and become part of a family-friendly Biker Gang.</t>
         </is>
       </c>
       <c r="B823" t="inlineStr"/>
@@ -12847,7 +12847,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Title: Capital of Texas Segway Tour</t>
+          <t>Title: The Good Morning &amp; Good Vibes E-Bike Tour of Austin</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12862,7 +12862,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>TotalReviews: 63</t>
+          <t>TotalReviews: 103</t>
         </is>
       </c>
       <c r="B825" t="inlineStr"/>
@@ -12877,7 +12877,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P10</t>
+          <t>PRODUCTCODE: 73370P4</t>
         </is>
       </c>
       <c r="B827" t="inlineStr"/>
@@ -12907,7 +12907,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation's 2 hour Historic Downtown Austin Segway tour is offered once daily. Tour explores many of Austin’s historic landmarks, brilliant modern skyscrapers, the Texas state capitol building, and other historic and interesting buildings throughout downtown.</t>
+          <t>Summarized description: 2 hour guided Segway tour showcases Austin's top destinations. Stop at Austin's newly built $125M DT public library w/ amazing 360º city views.</t>
         </is>
       </c>
       <c r="B828" t="inlineStr"/>
@@ -12922,7 +12922,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Historic Segway Tour</t>
+          <t>Title: Capital of Texas Segway Tour</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12937,7 +12937,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>TotalReviews: 45</t>
+          <t>TotalReviews: 63</t>
         </is>
       </c>
       <c r="B830" t="inlineStr"/>
@@ -12952,7 +12952,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B831" t="inlineStr"/>
@@ -12967,7 +12967,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P2</t>
+          <t>PRODUCTCODE: 5682P10</t>
         </is>
       </c>
       <c r="B832" t="inlineStr"/>
@@ -12982,7 +12982,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Summarized description: BikeTexas offers a more relaxed style with 2 food stops along the way. The best part is we get to ride e-bikes and see Austin's local scene at the same time.</t>
+          <t>Summarized description: Segway Nation's 2 hour Historic Downtown Austin Segway tour is offered once daily. Tour explores many of Austin’s historic landmarks, brilliant modern skyscrapers, the Texas state capitol building, and other historic and interesting buildings throughout downtown.</t>
         </is>
       </c>
       <c r="B833" t="inlineStr"/>
@@ -12997,7 +12997,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Foodie Tour </t>
+          <t>Title: Downtown Austin Historic Segway Tour</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13012,7 +13012,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 45</t>
         </is>
       </c>
       <c r="B835" t="inlineStr"/>
@@ -13027,7 +13027,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13042,7 +13042,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P1</t>
+          <t>PRODUCTCODE: 5682P16</t>
         </is>
       </c>
       <c r="B837" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Summarized description: See the heart of Austin through a locals eyes on some of the finest urban bike trails in the country. Stop at some of Austin’s most famous landmarks: Barton Springs, the Stevie Ray Vaughan Statue, the Congress Avenue “Bat Bridge,” and more.</t>
+          <t>Summarized description: Nation Tour’s famous Capital City E-Scooter Tour begins on the West side of Austin. After cruising through downtown, your E- scooter adventure arrives at Lady Bird Lake.</t>
         </is>
       </c>
       <c r="B838" t="inlineStr"/>
@@ -13072,7 +13072,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Title: Austin E-Bike Tour</t>
+          <t>Title: E-Scooter Tour of Austin</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13087,7 +13087,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B840" t="inlineStr"/>
@@ -13102,7 +13102,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13117,7 +13117,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P2</t>
+          <t>PRODUCTCODE: 134057P1</t>
         </is>
       </c>
       <c r="B842" t="inlineStr"/>
@@ -13132,7 +13132,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Summarized description: Meet at our store located at 10910 Domain Drive, #106, Austin, Texas 78701. One at a time, you get to stand on the Segway and learn how to operate the controls.</t>
+          <t>Summarized description: See the heart of Austin through a locals eyes on some of the finest urban bike trails in the country. Stop at some of Austin’s most famous landmarks: Barton Springs, the Stevie Ray Vaughan Statue, the Congress Avenue “Bat Bridge,” and more.</t>
         </is>
       </c>
       <c r="B843" t="inlineStr"/>
@@ -13147,7 +13147,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Title: The Ultimate Austin Segway Tour</t>
+          <t>Title: Austin E-Bike Tour</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13162,7 +13162,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B845" t="inlineStr"/>
@@ -13192,7 +13192,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P5</t>
+          <t>PRODUCTCODE: 206329P1</t>
         </is>
       </c>
       <c r="B847" t="inlineStr"/>
@@ -13207,7 +13207,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Austin Weird in the best way possible. We have conducted safe tours for just over 14 years now in Austin, Texas. Meet us inside Paradise Smoothies at 10910 Domain Drive.</t>
+          <t>Summarized description: The Austin Electric Adventure Tour takes you on an electric mini-bike tour of the city. The tour will explore South Congress, The "Willie for President" Mural, and the "i love you so much" mural.</t>
         </is>
       </c>
       <c r="B848" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Title: Austin Segway Tour</t>
+          <t>Title: Austin Electric Minibike Adventure Tour</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13237,7 +13237,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B850" t="inlineStr"/>
@@ -13252,7 +13252,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B851" t="inlineStr"/>
@@ -13267,7 +13267,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P1</t>
+          <t>PRODUCTCODE: 74447P2</t>
         </is>
       </c>
       <c r="B852" t="inlineStr"/>
@@ -13282,7 +13282,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour offers one-on-one rider training and a friendly orientation. North Austin has a lot to offer, and Segway tours are a great way to explore.</t>
+          <t>Summarized description: Meet at our store located at 10910 Domain Drive, #106, Austin, Texas 78701. One at a time, you get to stand on the Segway and learn how to operate the controls.</t>
         </is>
       </c>
       <c r="B853" t="inlineStr"/>
@@ -13297,7 +13297,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Title: Keep Austin Weird Segway Tour</t>
+          <t>Title: The Ultimate Austin Segway Tour</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13312,7 +13312,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B855" t="inlineStr"/>
@@ -13342,7 +13342,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19103P2</t>
+          <t>PRODUCTCODE: 74447P5</t>
         </is>
       </c>
       <c r="B857" t="inlineStr"/>
@@ -13357,7 +13357,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Summarized description: 2-hour guided Segway tour of downtown Austin. Ride past famous murals, graffiti, and other colorful oddities of downtown. Transportation to/from the departure point is not included.</t>
+          <t>Summarized description: Tour Austin Weird in the best way possible. We have conducted safe tours for just over 14 years now in Austin, Texas. Meet us inside Paradise Smoothies at 10910 Domain Drive.</t>
         </is>
       </c>
       <c r="B858" t="inlineStr"/>
@@ -13372,7 +13372,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Title: Austin Street Art Segway Tour</t>
+          <t>Title: Austin Segway Tour</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B860" t="inlineStr"/>
@@ -13402,7 +13402,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13417,7 +13417,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P5</t>
+          <t>PRODUCTCODE: 74447P1</t>
         </is>
       </c>
       <c r="B862" t="inlineStr"/>
@@ -13432,7 +13432,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Summarized description: South Congress Ave. is Austin's boutique and vintage shopping mecca. Avoid parking hassles by using a Segway. Take a tour of Austin's most iconic mural.</t>
+          <t>Summarized description: Segway tour offers one-on-one rider training and a friendly orientation. North Austin has a lot to offer, and Segway tours are a great way to explore.</t>
         </is>
       </c>
       <c r="B863" t="inlineStr"/>
@@ -13447,7 +13447,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Title: Austin's only 'South of the River' Segway Tour</t>
+          <t>Title: Keep Austin Weird Segway Tour</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13462,7 +13462,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B865" t="inlineStr"/>
@@ -13477,7 +13477,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B866" t="inlineStr"/>
@@ -13492,7 +13492,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P11</t>
+          <t>PRODUCTCODE: 19103P2</t>
         </is>
       </c>
       <c r="B867" t="inlineStr"/>
@@ -13507,7 +13507,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
+          <t>Summarized description: 2-hour guided Segway tour of downtown Austin. Ride past famous murals, graffiti, and other colorful oddities of downtown. Transportation to/from the departure point is not included.</t>
         </is>
       </c>
       <c r="B868" t="inlineStr"/>
@@ -13522,7 +13522,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Title: Private Segway Tour of Austin</t>
+          <t>Title: Austin Street Art Segway Tour</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13537,7 +13537,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B870" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B871" t="inlineStr"/>
@@ -13567,7 +13567,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P12</t>
+          <t>PRODUCTCODE: 73370P5</t>
         </is>
       </c>
       <c r="B872" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the darker side of Austin with our haunted tour. We begin with centuries of history at the State Capitol and Governor's Mansion. Then, continue to local haunts like the world-famous Driskill Hotel.</t>
+          <t>Summarized description: South Congress Ave. is Austin's boutique and vintage shopping mecca. Avoid parking hassles by using a Segway. Take a tour of Austin's most iconic mural.</t>
         </is>
       </c>
       <c r="B873" t="inlineStr"/>
@@ -13597,7 +13597,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Title: Domain Evening Segway Tour</t>
+          <t>Title: Austin's only 'South of the River' Segway Tour</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13612,7 +13612,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B875" t="inlineStr"/>
@@ -13627,7 +13627,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B876" t="inlineStr"/>
@@ -13642,7 +13642,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P9</t>
+          <t>PRODUCTCODE: 73370P11</t>
         </is>
       </c>
       <c r="B877" t="inlineStr"/>
@@ -13657,7 +13657,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>Summarized description: Take a Segway tour of beautiful North Austin. Start with a professional and knowledgeable guide giving you a personal orientation. Then, get a guided tour of the history and culture that makes Austin unique.</t>
+          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
         </is>
       </c>
       <c r="B878" t="inlineStr"/>
@@ -13672,7 +13672,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Title: Ultimate Austin Segway Tour</t>
+          <t>Title: Private Segway Tour of Austin</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13687,7 +13687,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B880" t="inlineStr"/>
@@ -13702,7 +13702,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSHAUNT</t>
+          <t>PRODUCTCODE: 74447P9</t>
         </is>
       </c>
       <c r="B882" t="inlineStr"/>
@@ -13732,7 +13732,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is home to one of the world’s largest urban bat colonies that emerge at night. You’ll also see the still-standing Austin Moonlight Towers, built in the 19th century after a serial killer plagued the city. Throughout your tour, you'll hear entertaining stories and facts about Austin.</t>
+          <t>Summarized description: Take a Segway tour of beautiful North Austin. Start with a professional and knowledgeable guide giving you a personal orientation. Then, get a guided tour of the history and culture that makes Austin unique.</t>
         </is>
       </c>
       <c r="B883" t="inlineStr"/>
@@ -13747,7 +13747,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Title: Haunted Austin and Bat Bridge Segway Tour</t>
+          <t>Title: Ultimate Austin Segway Tour</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13777,7 +13777,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -13792,7 +13792,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P2</t>
+          <t>PRODUCTCODE: 5682AUSHAUNT</t>
         </is>
       </c>
       <c r="B887" t="inlineStr"/>
@@ -13807,7 +13807,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Summarized description: Segways are the way to go in the hot Austin months leaving parking hassles behind. We'll take you to the back/local entrance to skip the line to get in. Entry into pools is included.</t>
+          <t>Summarized description: Austin is home to one of the world’s largest urban bat colonies that emerge at night. You’ll also see the still-standing Austin Moonlight Towers, built in the 19th century after a serial killer plagued the city. Throughout your tour, you'll hear entertaining stories and facts about Austin.</t>
         </is>
       </c>
       <c r="B888" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Title: Austin Parks and Rec Segway Tour</t>
+          <t>Title: Haunted Austin and Bat Bridge Segway Tour</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13852,7 +13852,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P8</t>
+          <t>PRODUCTCODE: 73370P2</t>
         </is>
       </c>
       <c r="B892" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Summarized description: 90 minute Segway tour around the downtown corridor. Showing you the city we love most, is a complete joy and total thrill with Segways.</t>
+          <t>Summarized description: Segways are the way to go in the hot Austin months leaving parking hassles behind. We'll take you to the back/local entrance to skip the line to get in. Entry into pools is included.</t>
         </is>
       </c>
       <c r="B893" t="inlineStr"/>
@@ -13897,7 +13897,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Title: Downtown ATX on a Segway</t>
+          <t>Title: Austin Parks and Rec Segway Tour</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13942,7 +13942,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P8</t>
+          <t>PRODUCTCODE: 73370P8</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
+          <t>Summarized description: 90 minute Segway tour around the downtown corridor. Showing you the city we love most, is a complete joy and total thrill with Segways.</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Title: Ultimate Segway Tour in Austin</t>
+          <t>Title: Downtown ATX on a Segway</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P6</t>
+          <t>PRODUCTCODE: 74447P8</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour lets you explore the sights of the Domain faster than you ever could on foot. Explore destinations such as the nightlife of Rock Rose Avenue, the scenic nature of the Balcones District Park, and the many other sights.</t>
+          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Title: Austin's Only Local Segway Tour</t>
+          <t>Title: Ultimate Segway Tour in Austin</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P7</t>
+          <t>PRODUCTCODE: 74447P6</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: 90 minute Segway Sightseeing tour of North Austin. One-on-one rider training and orientation. See all that downtown Austin has to offer.</t>
+          <t>Summarized description: Segway tour lets you explore the sights of the Domain faster than you ever could on foot. Explore destinations such as the nightlife of Rock Rose Avenue, the scenic nature of the Balcones District Park, and the many other sights.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Title: Austin Early Bird Segway Tour with a Local Guide</t>
+          <t>Title: Austin's Only Local Segway Tour</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P4</t>
+          <t>PRODUCTCODE: 74447P7</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
+          <t>Summarized description: 90 minute Segway Sightseeing tour of North Austin. One-on-one rider training and orientation. See all that downtown Austin has to offer.</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Title: Historic Austin Segway Tour</t>
+          <t>Title: Austin Early Bird Segway Tour with a Local Guide</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19103P1</t>
+          <t>PRODUCTCODE: 74447P4</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Take a trip back to Austin's sordid past with tales of tragedy, murder, and unexplainable mystery. This 90-minute segway tour will take you on a guided journey that visits the Capitol, the Driskill Hotel, and other spectacular haunts.</t>
+          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: Austin Haunted Legends Segway Tour</t>
+          <t>Title: Historic Austin Segway Tour</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSDOWN</t>
+          <t>PRODUCTCODE: 5682AUSCITY</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
+          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Segway Tour</t>
+          <t>Title: Austin Sightseeing Segway Tour</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSHIS</t>
+          <t>PRODUCTCODE: 19103P1</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: 2.5-hour Segway tour will take you to the city’s many historical sites, scenic locations and modern-day cultural hubs. Explore the trendy Warehouse District, pedestrian-friendly 2nd Street District and 6th Street, the heart of the live entertainment scene.</t>
+          <t>Summarized description: Take a trip back to Austin's sordid past with tales of tragedy, murder, and unexplainable mystery. This 90-minute segway tour will take you on a guided journey that visits the Capitol, the Driskill Hotel, and other spectacular haunts.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: Ultimate Austin Segway Tour: Historical Sights and Modern Highlights</t>
+          <t>Title: Austin Haunted Legends Segway Tour</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186429P1</t>
+          <t>PRODUCTCODE: 5682AUSDOWN</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: The 2.5-hour Segway tour is offered from March to October. See the Texas State Capitol Building, Lady Bird Lake, Austin Convention Center, and more. Hear the ghostly tales behind Austin's historic buildings and famous landmarks.</t>
+          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Our Austin's Ghost and Bat By Segwaying</t>
+          <t>Title: Downtown Austin Segway Tour</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P11</t>
+          <t>PRODUCTCODE: 5682AUSHIS</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour provides a unique experience to travelers and locals alike because of the use of Segway technology. Tour guide provides you with historical explanations, and an introduction to Texas culture.</t>
+          <t>Summarized description: 2.5-hour Segway tour will take you to the city’s many historical sites, scenic locations and modern-day cultural hubs. Explore the trendy Warehouse District, pedestrian-friendly 2nd Street District and 6th Street, the heart of the live entertainment scene.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: Segway Bat Tour in Austin</t>
+          <t>Title: Ultimate Austin Segway Tour: Historical Sights and Modern Highlights</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1626</t>
+          <t>PRODUCTCODE: 74447P10</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
+          <t>Summarized description: Take our Beat the Heat Austin Segway Tour! Ride a Segway around our beautiful city before the heat and crowd shows up. Looking to get ahead of the Texas heat, but still see what Austin has to offer?</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
+          <t>Title: Beat the Heat Austin Segway Tour</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88685P1</t>
+          <t>PRODUCTCODE: 74447P3</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: The Ghost Tour of Austin is a nighttime walking tour of the Congress Avenue Historic District. Discover Austin's paranormal nightlife! Join us for a spooky good time and embrace your inner fear, fascination, or skepticism!</t>
+          <t>Summarized description: Segway tour includes orientation and one-on-one rider training. Glide around the Texas State Capitol Building and explore much of the downtown as the sun starts to set.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Austin Walking Ghost Tour Congress Avenue Historic District</t>
+          <t>Title: Segway Dinner Tour in Austin</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P8</t>
+          <t>PRODUCTCODE: 187194P2</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
+          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Austin Private Tour</t>
+          <t>Title: City Tour: Austin Capitol By Segway</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P77</t>
+          <t>PRODUCTCODE: 74447P11</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
+          <t>Summarized description: Segway tour provides a unique experience to travelers and locals alike because of the use of Segway technology. Tour guide provides you with historical explanations, and an introduction to Texas culture.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
+          <t>Title: Segway Bat Tour in Austin</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P5</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Austin invites you to join our tour of three distilleries to enjoy locally crafted vodka, gin, rum, whiskey and other spirits. Our public tours offer a wonderful opportunity to raise a glass with new friends and enjoy the spirits and scenery.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin Distillery Tour </t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P6</t>
+          <t>PRODUCTCODE: 90519P8</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is bursting with music during SXSW. Over 2,000 different acts performing at more than 300 official parties, clubs, and events. Take a BikeTexas tour to experience all the excitement of SXSW at a fraction of the cost.</t>
+          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Austin SXSW E-Bike Tour</t>
+          <t>Title: Austin Private Tour</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 214718P1</t>
+          <t>PRODUCTCODE: 87115P77</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
+          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Austin Self-Guided Adventure Tour</t>
+          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 281487P40</t>
+          <t>PRODUCTCODE: 172361P1</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Delve into the happening Austin streets and feel the uniquely Austin character of its one-of-a-kind downtown. Explore at your own pace feel Austin's distinct southern spirit and take in its charm.</t>
+          <t>Summarized description: A tour with Mackphotography Atx is going to include a little bit of local lore, some current facts and ongoings in the city and central texas. Mack will focus on some of the best locations to photograph Austin and Central Texas bar none.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Austin Scavenger Hunt Walking Tour and Game</t>
+          <t>Title: Downtown Austin Photo Tour</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42365P5</t>
+          <t>PRODUCTCODE: 356901P1</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: This is the ONLY Revel Moped tour in the world! The ONLY tour in Austin that takes you to Mount Bonnell and its breath taking views of the city. Learn of the cultural standouts and what makes Austin such a rich and diverse city! All while being propelled on a Revel Electric Moped!</t>
+          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Revel Moped Tour Mt Bonnell and Neighborhoods of Austin</t>
+          <t>Title: The Best of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 356901P1</t>
+          <t>PRODUCTCODE: 49202P5</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
+          <t>Summarized description: The UT-Austin campus boasts an extensive and diverse history dating back to 1883. This tour is open to the public and the number of participants usually ranges from 5-10 runners.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: The Best of Austin Private Walking Tour</t>
+          <t>Title: University of Texas Austin 5K Tour</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 291969P4</t>
+          <t>PRODUCTCODE: 133277P4</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Austin from beautiful Lady Bird Lake. Take a guided tour of the city, historical Barton Springs, and natural all from the heart of downtown Austin.</t>
+          <t>Summarized description: Austin's pathways and trails present the perfect opportunity to cruise and soak in the culture. Navigating the city on our electric bikes, you get to see things you would normally drive past.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Guided Downtown Austin Kayak Tour</t>
+          <t>Title: See, Eat, Ride - Austin Electric Bike Tour | MOD BIKES</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10211P51</t>
+          <t>PRODUCTCODE: 133277P2</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Austin Trails is a three hour city walking tour guided from your smart phone. Teams make their way among well known and overlooked gems of the city, solving clues.</t>
+          <t>Summarized description: Take any MOD for a real Austin adventure; your first hour is on the house. Take a tour of the Austin Museum of Natural History. Visit the Museum of American History.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Austin Trails Amazing Scavenger Hunt Adventure</t>
+          <t xml:space="preserve">Title: Electric bike guided tour </t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 49202P5</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15529,306 +15529,6 @@
       <c r="H1002" t="inlineStr"/>
       <c r="I1002" t="inlineStr"/>
     </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>Summarized description: The UT-Austin campus boasts an extensive and diverse history dating back to 1883. This tour is open to the public and the number of participants usually ranges from 5-10 runners.</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr"/>
-      <c r="C1003" t="inlineStr"/>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr"/>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr"/>
-      <c r="I1003" t="inlineStr"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>Title: University of Texas Austin 5K Tour</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr"/>
-      <c r="C1004" t="inlineStr"/>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr"/>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr"/>
-      <c r="I1004" t="inlineStr"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr"/>
-      <c r="C1005" t="inlineStr"/>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr"/>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr"/>
-      <c r="I1005" t="inlineStr"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr"/>
-      <c r="C1006" t="inlineStr"/>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr"/>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr"/>
-      <c r="I1006" t="inlineStr"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5663MUSIC</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr"/>
-      <c r="C1007" t="inlineStr"/>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr"/>
-      <c r="I1007" t="inlineStr"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>Summarized description: Follow a local musician around Austin to discover why this city’s touted as the ‘Live Music Capital of the World’ Ride past renowned music venues including the Continental Club and Victory Grill. Then, on a rooftop deck overlooking Lady Bird Lake and downtown Austin, you’ll be treated to a live musical performance while admiring a gorgeous sunset.</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr"/>
-      <c r="C1008" t="inlineStr"/>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr"/>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr"/>
-      <c r="I1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>Title: Austin Live Music and Electric Bike Tour</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr"/>
-      <c r="C1009" t="inlineStr"/>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr"/>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr"/>
-      <c r="H1009" t="inlineStr"/>
-      <c r="I1009" t="inlineStr"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1010" t="inlineStr"/>
-      <c r="C1010" t="inlineStr"/>
-      <c r="D1010" t="inlineStr"/>
-      <c r="E1010" t="inlineStr"/>
-      <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr"/>
-      <c r="H1010" t="inlineStr"/>
-      <c r="I1010" t="inlineStr"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Performing Arts']</t>
-        </is>
-      </c>
-      <c r="B1011" t="inlineStr"/>
-      <c r="C1011" t="inlineStr"/>
-      <c r="D1011" t="inlineStr"/>
-      <c r="E1011" t="inlineStr"/>
-      <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr"/>
-      <c r="H1011" t="inlineStr"/>
-      <c r="I1011" t="inlineStr"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 133277P4</t>
-        </is>
-      </c>
-      <c r="B1012" t="inlineStr"/>
-      <c r="C1012" t="inlineStr"/>
-      <c r="D1012" t="inlineStr"/>
-      <c r="E1012" t="inlineStr"/>
-      <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr"/>
-      <c r="H1012" t="inlineStr"/>
-      <c r="I1012" t="inlineStr"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin's pathways and trails present the perfect opportunity to cruise and soak in the culture. Navigating the city on our electric bikes, you get to see things you would normally drive past.</t>
-        </is>
-      </c>
-      <c r="B1013" t="inlineStr"/>
-      <c r="C1013" t="inlineStr"/>
-      <c r="D1013" t="inlineStr"/>
-      <c r="E1013" t="inlineStr"/>
-      <c r="F1013" t="inlineStr"/>
-      <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr"/>
-      <c r="I1013" t="inlineStr"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>Title: See, Eat, Ride - Austin Electric Bike Tour | MOD BIKES</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr"/>
-      <c r="C1014" t="inlineStr"/>
-      <c r="D1014" t="inlineStr"/>
-      <c r="E1014" t="inlineStr"/>
-      <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr"/>
-      <c r="I1014" t="inlineStr"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr"/>
-      <c r="C1015" t="inlineStr"/>
-      <c r="D1015" t="inlineStr"/>
-      <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr"/>
-      <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr"/>
-      <c r="I1015" t="inlineStr"/>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr"/>
-      <c r="C1016" t="inlineStr"/>
-      <c r="D1016" t="inlineStr"/>
-      <c r="E1016" t="inlineStr"/>
-      <c r="F1016" t="inlineStr"/>
-      <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr"/>
-      <c r="I1016" t="inlineStr"/>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 133277P2</t>
-        </is>
-      </c>
-      <c r="B1017" t="inlineStr"/>
-      <c r="C1017" t="inlineStr"/>
-      <c r="D1017" t="inlineStr"/>
-      <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr"/>
-      <c r="I1017" t="inlineStr"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>Summarized description: Take any MOD for a real Austin adventure; your first hour is on the house. Take a tour of the Austin Museum of Natural History. Visit the Museum of American History.</t>
-        </is>
-      </c>
-      <c r="B1018" t="inlineStr"/>
-      <c r="C1018" t="inlineStr"/>
-      <c r="D1018" t="inlineStr"/>
-      <c r="E1018" t="inlineStr"/>
-      <c r="F1018" t="inlineStr"/>
-      <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr"/>
-      <c r="I1018" t="inlineStr"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Electric bike guided tour </t>
-        </is>
-      </c>
-      <c r="B1019" t="inlineStr"/>
-      <c r="C1019" t="inlineStr"/>
-      <c r="D1019" t="inlineStr"/>
-      <c r="E1019" t="inlineStr"/>
-      <c r="F1019" t="inlineStr"/>
-      <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr"/>
-      <c r="I1019" t="inlineStr"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1020" t="inlineStr"/>
-      <c r="C1020" t="inlineStr"/>
-      <c r="D1020" t="inlineStr"/>
-      <c r="E1020" t="inlineStr"/>
-      <c r="F1020" t="inlineStr"/>
-      <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr"/>
-      <c r="I1020" t="inlineStr"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B1021" t="inlineStr"/>
-      <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="inlineStr"/>
-      <c r="E1021" t="inlineStr"/>
-      <c r="F1021" t="inlineStr"/>
-      <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr"/>
-      <c r="I1021" t="inlineStr"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1022" t="inlineStr"/>
-      <c r="C1022" t="inlineStr"/>
-      <c r="D1022" t="inlineStr"/>
-      <c r="E1022" t="inlineStr"/>
-      <c r="F1022" t="inlineStr"/>
-      <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr"/>
-      <c r="I1022" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/6462P29.xlsx
+++ b/experiment_results/6462P29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1002"/>
+  <dimension ref="A1:I997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Wildlife Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wildlife Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Team Sports']</t>
+          <t>Category: ['Team Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Team Sports']</t>
+          <t>Category: ['Team Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Performing Arts']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B816" t="inlineStr"/>
@@ -12742,7 +12742,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P12</t>
+          <t>PRODUCTCODE: 350454P2</t>
         </is>
       </c>
       <c r="B817" t="inlineStr"/>
@@ -12757,7 +12757,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation offers its 2.5 hour Ghost and Bat Segway tour once daily. Bats are seasonal and usually fly from March to October every year. We visit some of Austin's haunted downtown hotels and buildings.</t>
+          <t>Summarized description: Discover Austin's rich heritage, thriving arts scene, and culinary delights. Our tours and our tour guide, Rooster, has 100% 5 star reviews on Tripadvisor, Google and Airbnb.</t>
         </is>
       </c>
       <c r="B818" t="inlineStr"/>
@@ -12772,7 +12772,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Title: Austin Famous Ghost and Bat Segway Tour</t>
+          <t>Title: Austin Good Vibes E-Bike Tours with Rooster</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12787,7 +12787,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>TotalReviews: 142</t>
+          <t>TotalReviews: 195</t>
         </is>
       </c>
       <c r="B820" t="inlineStr"/>
@@ -12802,7 +12802,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -13027,7 +13027,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13192,7 +13192,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 206329P1</t>
+          <t>PRODUCTCODE: 74447P2</t>
         </is>
       </c>
       <c r="B847" t="inlineStr"/>
@@ -13207,7 +13207,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Summarized description: The Austin Electric Adventure Tour takes you on an electric mini-bike tour of the city. The tour will explore South Congress, The "Willie for President" Mural, and the "i love you so much" mural.</t>
+          <t>Summarized description: Meet at our store located at 10910 Domain Drive, #106, Austin, Texas 78701. One at a time, you get to stand on the Segway and learn how to operate the controls.</t>
         </is>
       </c>
       <c r="B848" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Title: Austin Electric Minibike Adventure Tour</t>
+          <t>Title: The Ultimate Austin Segway Tour</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13237,7 +13237,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B850" t="inlineStr"/>
@@ -13252,7 +13252,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B851" t="inlineStr"/>
@@ -13267,7 +13267,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P2</t>
+          <t>PRODUCTCODE: 74447P5</t>
         </is>
       </c>
       <c r="B852" t="inlineStr"/>
@@ -13282,7 +13282,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Summarized description: Meet at our store located at 10910 Domain Drive, #106, Austin, Texas 78701. One at a time, you get to stand on the Segway and learn how to operate the controls.</t>
+          <t>Summarized description: Tour Austin Weird in the best way possible. We have conducted safe tours for just over 14 years now in Austin, Texas. Meet us inside Paradise Smoothies at 10910 Domain Drive.</t>
         </is>
       </c>
       <c r="B853" t="inlineStr"/>
@@ -13297,7 +13297,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Title: The Ultimate Austin Segway Tour</t>
+          <t>Title: Austin Segway Tour</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13312,7 +13312,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B855" t="inlineStr"/>
@@ -13342,7 +13342,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P5</t>
+          <t>PRODUCTCODE: 74447P1</t>
         </is>
       </c>
       <c r="B857" t="inlineStr"/>
@@ -13357,7 +13357,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Austin Weird in the best way possible. We have conducted safe tours for just over 14 years now in Austin, Texas. Meet us inside Paradise Smoothies at 10910 Domain Drive.</t>
+          <t>Summarized description: Segway tour offers one-on-one rider training and a friendly orientation. North Austin has a lot to offer, and Segway tours are a great way to explore.</t>
         </is>
       </c>
       <c r="B858" t="inlineStr"/>
@@ -13372,7 +13372,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Title: Austin Segway Tour</t>
+          <t>Title: Keep Austin Weird Segway Tour</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B860" t="inlineStr"/>
@@ -13417,7 +13417,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P1</t>
+          <t>PRODUCTCODE: 19103P2</t>
         </is>
       </c>
       <c r="B862" t="inlineStr"/>
@@ -13432,7 +13432,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour offers one-on-one rider training and a friendly orientation. North Austin has a lot to offer, and Segway tours are a great way to explore.</t>
+          <t>Summarized description: 2-hour guided Segway tour of downtown Austin. Ride past famous murals, graffiti, and other colorful oddities of downtown. Transportation to/from the departure point is not included.</t>
         </is>
       </c>
       <c r="B863" t="inlineStr"/>
@@ -13447,7 +13447,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Title: Keep Austin Weird Segway Tour</t>
+          <t>Title: Austin Street Art Segway Tour</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13462,7 +13462,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B865" t="inlineStr"/>
@@ -13477,7 +13477,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B866" t="inlineStr"/>
@@ -13492,7 +13492,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19103P2</t>
+          <t>PRODUCTCODE: 73370P5</t>
         </is>
       </c>
       <c r="B867" t="inlineStr"/>
@@ -13507,7 +13507,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Summarized description: 2-hour guided Segway tour of downtown Austin. Ride past famous murals, graffiti, and other colorful oddities of downtown. Transportation to/from the departure point is not included.</t>
+          <t>Summarized description: South Congress Ave. is Austin's boutique and vintage shopping mecca. Avoid parking hassles by using a Segway. Take a tour of Austin's most iconic mural.</t>
         </is>
       </c>
       <c r="B868" t="inlineStr"/>
@@ -13522,7 +13522,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Title: Austin Street Art Segway Tour</t>
+          <t>Title: Austin's only 'South of the River' Segway Tour</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B871" t="inlineStr"/>
@@ -13567,7 +13567,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P5</t>
+          <t>PRODUCTCODE: 73370P11</t>
         </is>
       </c>
       <c r="B872" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>Summarized description: South Congress Ave. is Austin's boutique and vintage shopping mecca. Avoid parking hassles by using a Segway. Take a tour of Austin's most iconic mural.</t>
+          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
         </is>
       </c>
       <c r="B873" t="inlineStr"/>
@@ -13597,7 +13597,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Title: Austin's only 'South of the River' Segway Tour</t>
+          <t>Title: Private Segway Tour of Austin</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13612,7 +13612,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B875" t="inlineStr"/>
@@ -13627,7 +13627,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B876" t="inlineStr"/>
@@ -13642,7 +13642,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P11</t>
+          <t>PRODUCTCODE: 74447P9</t>
         </is>
       </c>
       <c r="B877" t="inlineStr"/>
@@ -13657,7 +13657,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
+          <t>Summarized description: Take a Segway tour of beautiful North Austin. Start with a professional and knowledgeable guide giving you a personal orientation. Then, get a guided tour of the history and culture that makes Austin unique.</t>
         </is>
       </c>
       <c r="B878" t="inlineStr"/>
@@ -13672,7 +13672,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Title: Private Segway Tour of Austin</t>
+          <t>Title: Ultimate Austin Segway Tour</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13687,7 +13687,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B880" t="inlineStr"/>
@@ -13702,7 +13702,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P9</t>
+          <t>PRODUCTCODE: 5682AUSHAUNT</t>
         </is>
       </c>
       <c r="B882" t="inlineStr"/>
@@ -13732,7 +13732,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Summarized description: Take a Segway tour of beautiful North Austin. Start with a professional and knowledgeable guide giving you a personal orientation. Then, get a guided tour of the history and culture that makes Austin unique.</t>
+          <t>Summarized description: Austin is home to one of the world’s largest urban bat colonies that emerge at night. You’ll also see the still-standing Austin Moonlight Towers, built in the 19th century after a serial killer plagued the city. Throughout your tour, you'll hear entertaining stories and facts about Austin.</t>
         </is>
       </c>
       <c r="B883" t="inlineStr"/>
@@ -13747,7 +13747,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Title: Ultimate Austin Segway Tour</t>
+          <t>Title: Haunted Austin and Bat Bridge Segway Tour</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13777,7 +13777,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -13792,7 +13792,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSHAUNT</t>
+          <t>PRODUCTCODE: 73370P2</t>
         </is>
       </c>
       <c r="B887" t="inlineStr"/>
@@ -13807,7 +13807,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is home to one of the world’s largest urban bat colonies that emerge at night. You’ll also see the still-standing Austin Moonlight Towers, built in the 19th century after a serial killer plagued the city. Throughout your tour, you'll hear entertaining stories and facts about Austin.</t>
+          <t>Summarized description: Segways are the way to go in the hot Austin months leaving parking hassles behind. We'll take you to the back/local entrance to skip the line to get in. Entry into pools is included.</t>
         </is>
       </c>
       <c r="B888" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Title: Haunted Austin and Bat Bridge Segway Tour</t>
+          <t>Title: Austin Parks and Rec Segway Tour</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13852,7 +13852,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P2</t>
+          <t>PRODUCTCODE: 73370P8</t>
         </is>
       </c>
       <c r="B892" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Summarized description: Segways are the way to go in the hot Austin months leaving parking hassles behind. We'll take you to the back/local entrance to skip the line to get in. Entry into pools is included.</t>
+          <t>Summarized description: 90 minute Segway tour around the downtown corridor. Showing you the city we love most, is a complete joy and total thrill with Segways.</t>
         </is>
       </c>
       <c r="B893" t="inlineStr"/>
@@ -13897,7 +13897,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Title: Austin Parks and Rec Segway Tour</t>
+          <t>Title: Downtown ATX on a Segway</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13942,7 +13942,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P8</t>
+          <t>PRODUCTCODE: 74447P8</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Summarized description: 90 minute Segway tour around the downtown corridor. Showing you the city we love most, is a complete joy and total thrill with Segways.</t>
+          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Title: Downtown ATX on a Segway</t>
+          <t>Title: Ultimate Segway Tour in Austin</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P8</t>
+          <t>PRODUCTCODE: 74447P6</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
+          <t>Summarized description: Segway tour lets you explore the sights of the Domain faster than you ever could on foot. Explore destinations such as the nightlife of Rock Rose Avenue, the scenic nature of the Balcones District Park, and the many other sights.</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Title: Ultimate Segway Tour in Austin</t>
+          <t>Title: Austin's Only Local Segway Tour</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P6</t>
+          <t>PRODUCTCODE: 74447P7</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour lets you explore the sights of the Domain faster than you ever could on foot. Explore destinations such as the nightlife of Rock Rose Avenue, the scenic nature of the Balcones District Park, and the many other sights.</t>
+          <t>Summarized description: 90 minute Segway Sightseeing tour of North Austin. One-on-one rider training and orientation. See all that downtown Austin has to offer.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Title: Austin's Only Local Segway Tour</t>
+          <t>Title: Austin Early Bird Segway Tour with a Local Guide</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P7</t>
+          <t>PRODUCTCODE: 74447P4</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: 90 minute Segway Sightseeing tour of North Austin. One-on-one rider training and orientation. See all that downtown Austin has to offer.</t>
+          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Title: Austin Early Bird Segway Tour with a Local Guide</t>
+          <t>Title: Historic Austin Segway Tour</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P4</t>
+          <t>PRODUCTCODE: 5682AUSCITY</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
+          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: Historic Austin Segway Tour</t>
+          <t>Title: Austin Sightseeing Segway Tour</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSCITY</t>
+          <t>PRODUCTCODE: 19103P1</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
+          <t>Summarized description: Take a trip back to Austin's sordid past with tales of tragedy, murder, and unexplainable mystery. This 90-minute segway tour will take you on a guided journey that visits the Capitol, the Driskill Hotel, and other spectacular haunts.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: Austin Sightseeing Segway Tour</t>
+          <t>Title: Austin Haunted Legends Segway Tour</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19103P1</t>
+          <t>PRODUCTCODE: 5682AUSDOWN</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Take a trip back to Austin's sordid past with tales of tragedy, murder, and unexplainable mystery. This 90-minute segway tour will take you on a guided journey that visits the Capitol, the Driskill Hotel, and other spectacular haunts.</t>
+          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: Austin Haunted Legends Segway Tour</t>
+          <t>Title: Downtown Austin Segway Tour</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSDOWN</t>
+          <t>PRODUCTCODE: 5682AUSHIS</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
+          <t>Summarized description: 2.5-hour Segway tour will take you to the city’s many historical sites, scenic locations and modern-day cultural hubs. Explore the trendy Warehouse District, pedestrian-friendly 2nd Street District and 6th Street, the heart of the live entertainment scene.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Segway Tour</t>
+          <t>Title: Ultimate Austin Segway Tour: Historical Sights and Modern Highlights</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSHIS</t>
+          <t>PRODUCTCODE: 74447P10</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: 2.5-hour Segway tour will take you to the city’s many historical sites, scenic locations and modern-day cultural hubs. Explore the trendy Warehouse District, pedestrian-friendly 2nd Street District and 6th Street, the heart of the live entertainment scene.</t>
+          <t>Summarized description: Take our Beat the Heat Austin Segway Tour! Ride a Segway around our beautiful city before the heat and crowd shows up. Looking to get ahead of the Texas heat, but still see what Austin has to offer?</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: Ultimate Austin Segway Tour: Historical Sights and Modern Highlights</t>
+          <t>Title: Beat the Heat Austin Segway Tour</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P10</t>
+          <t>PRODUCTCODE: 74447P3</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Take our Beat the Heat Austin Segway Tour! Ride a Segway around our beautiful city before the heat and crowd shows up. Looking to get ahead of the Texas heat, but still see what Austin has to offer?</t>
+          <t>Summarized description: Segway tour includes orientation and one-on-one rider training. Glide around the Texas State Capitol Building and explore much of the downtown as the sun starts to set.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: Beat the Heat Austin Segway Tour</t>
+          <t>Title: Segway Dinner Tour in Austin</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P3</t>
+          <t>PRODUCTCODE: 187194P2</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour includes orientation and one-on-one rider training. Glide around the Texas State Capitol Building and explore much of the downtown as the sun starts to set.</t>
+          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Segway Dinner Tour in Austin</t>
+          <t>Title: City Tour: Austin Capitol By Segway</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 187194P2</t>
+          <t>PRODUCTCODE: 74447P11</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
+          <t>Summarized description: Segway tour provides a unique experience to travelers and locals alike because of the use of Segway technology. Tour guide provides you with historical explanations, and an introduction to Texas culture.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: City Tour: Austin Capitol By Segway</t>
+          <t>Title: Segway Bat Tour in Austin</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P11</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour provides a unique experience to travelers and locals alike because of the use of Segway technology. Tour guide provides you with historical explanations, and an introduction to Texas culture.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Segway Bat Tour in Austin</t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1626</t>
+          <t>PRODUCTCODE: 90519P8</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
+          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
+          <t>Title: Austin Private Tour</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P8</t>
+          <t>PRODUCTCODE: 87115P77</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
+          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Austin Private Tour</t>
+          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P77</t>
+          <t>PRODUCTCODE: 172361P1</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
+          <t>Summarized description: A tour with Mackphotography Atx is going to include a little bit of local lore, some current facts and ongoings in the city and central texas. Mack will focus on some of the best locations to photograph Austin and Central Texas bar none.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
+          <t>Title: Downtown Austin Photo Tour</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172361P1</t>
+          <t>PRODUCTCODE: 356901P1</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: A tour with Mackphotography Atx is going to include a little bit of local lore, some current facts and ongoings in the city and central texas. Mack will focus on some of the best locations to photograph Austin and Central Texas bar none.</t>
+          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Photo Tour</t>
+          <t>Title: The Best of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 356901P1</t>
+          <t>PRODUCTCODE: 49202P5</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
+          <t>Summarized description: The UT-Austin campus boasts an extensive and diverse history dating back to 1883. This tour is open to the public and the number of participants usually ranges from 5-10 runners.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: The Best of Austin Private Walking Tour</t>
+          <t>Title: University of Texas Austin 5K Tour</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 49202P5</t>
+          <t>PRODUCTCODE: 133277P4</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: The UT-Austin campus boasts an extensive and diverse history dating back to 1883. This tour is open to the public and the number of participants usually ranges from 5-10 runners.</t>
+          <t>Summarized description: Austin's pathways and trails present the perfect opportunity to cruise and soak in the culture. Navigating the city on our electric bikes, you get to see things you would normally drive past.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: University of Texas Austin 5K Tour</t>
+          <t>Title: See, Eat, Ride - Austin Electric Bike Tour | MOD BIKES</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 133277P4</t>
+          <t>PRODUCTCODE: 133277P2</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Austin's pathways and trails present the perfect opportunity to cruise and soak in the culture. Navigating the city on our electric bikes, you get to see things you would normally drive past.</t>
+          <t>Summarized description: Take any MOD for a real Austin adventure; your first hour is on the house. Take a tour of the Austin Museum of Natural History. Visit the Museum of American History.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: See, Eat, Ride - Austin Electric Bike Tour | MOD BIKES</t>
+          <t xml:space="preserve">Title: Electric bike guided tour </t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 133277P2</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15454,81 +15454,6 @@
       <c r="H997" t="inlineStr"/>
       <c r="I997" t="inlineStr"/>
     </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>Summarized description: Take any MOD for a real Austin adventure; your first hour is on the house. Take a tour of the Austin Museum of Natural History. Visit the Museum of American History.</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr"/>
-      <c r="C998" t="inlineStr"/>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr"/>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr"/>
-      <c r="I998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Electric bike guided tour </t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr"/>
-      <c r="C999" t="inlineStr"/>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr"/>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr"/>
-      <c r="I999" t="inlineStr"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr"/>
-      <c r="C1000" t="inlineStr"/>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr"/>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr"/>
-      <c r="I1000" t="inlineStr"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr"/>
-      <c r="C1001" t="inlineStr"/>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr"/>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr"/>
-      <c r="I1001" t="inlineStr"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr"/>
-      <c r="C1002" t="inlineStr"/>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr"/>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr"/>
-      <c r="I1002" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/6462P29.xlsx
+++ b/experiment_results/6462P29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I997"/>
+  <dimension ref="A1:I992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Wildlife Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Shopping and Fashion', 'City Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Water Sports']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Team Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Team Sports']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Team Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Team Sports']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
+          <t>Category: ['Entertainment', 'Performing Arts', 'City Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12742,7 +12742,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 350454P2</t>
+          <t>PRODUCTCODE: 5682P12</t>
         </is>
       </c>
       <c r="B817" t="inlineStr"/>
@@ -12757,7 +12757,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Austin's rich heritage, thriving arts scene, and culinary delights. Our tours and our tour guide, Rooster, has 100% 5 star reviews on Tripadvisor, Google and Airbnb.</t>
+          <t>Summarized description: Segway Nation offers its 2.5 hour Ghost and Bat Segway tour once daily. Bats are seasonal and usually fly from March to October every year. We visit some of Austin's haunted downtown hotels and buildings.</t>
         </is>
       </c>
       <c r="B818" t="inlineStr"/>
@@ -12772,7 +12772,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Title: Austin Good Vibes E-Bike Tours with Rooster</t>
+          <t>Title: Austin Famous Ghost and Bat Segway Tour</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12787,7 +12787,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>TotalReviews: 195</t>
+          <t>TotalReviews: 142</t>
         </is>
       </c>
       <c r="B820" t="inlineStr"/>
@@ -12802,7 +12802,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 57338P4</t>
+          <t>PRODUCTCODE: 16592P2</t>
         </is>
       </c>
       <c r="B822" t="inlineStr"/>
@@ -12832,7 +12832,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Summarized description: Family-friendly biker gang. It's the most fun you can have on two wheels. Unleash a little of your “bad” side and become part of a family-friendly Biker Gang.</t>
+          <t>Summarized description: Our flagship tour covers a bit of everything about downtown Austin. Pedal through historic districts and dive into the art and history of Texas’ capital city. Enjoy highlights such as: Lady bird lake, Texas State Capitol, the Congress Bridge.</t>
         </is>
       </c>
       <c r="B823" t="inlineStr"/>
@@ -12847,7 +12847,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Title: The Good Morning &amp; Good Vibes E-Bike Tour of Austin</t>
+          <t>Title: Austin Icons Bicycle Tour</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12862,7 +12862,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>TotalReviews: 103</t>
+          <t>TotalReviews: 89</t>
         </is>
       </c>
       <c r="B825" t="inlineStr"/>
@@ -12877,7 +12877,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -13192,7 +13192,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P2</t>
+          <t>PRODUCTCODE: 206329P1</t>
         </is>
       </c>
       <c r="B847" t="inlineStr"/>
@@ -13207,7 +13207,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Summarized description: Meet at our store located at 10910 Domain Drive, #106, Austin, Texas 78701. One at a time, you get to stand on the Segway and learn how to operate the controls.</t>
+          <t>Summarized description: The Austin Electric Adventure Tour takes you on an electric mini-bike tour of the city. The tour will explore South Congress, The "Willie for President" Mural, and the "i love you so much" mural.</t>
         </is>
       </c>
       <c r="B848" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Title: The Ultimate Austin Segway Tour</t>
+          <t>Title: Austin Electric Minibike Adventure Tour</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13237,7 +13237,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B850" t="inlineStr"/>
@@ -13252,7 +13252,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B851" t="inlineStr"/>
@@ -13267,7 +13267,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P5</t>
+          <t>PRODUCTCODE: 74447P2</t>
         </is>
       </c>
       <c r="B852" t="inlineStr"/>
@@ -13282,7 +13282,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Austin Weird in the best way possible. We have conducted safe tours for just over 14 years now in Austin, Texas. Meet us inside Paradise Smoothies at 10910 Domain Drive.</t>
+          <t>Summarized description: Meet at our store located at 10910 Domain Drive, #106, Austin, Texas 78701. One at a time, you get to stand on the Segway and learn how to operate the controls.</t>
         </is>
       </c>
       <c r="B853" t="inlineStr"/>
@@ -13297,7 +13297,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Title: Austin Segway Tour</t>
+          <t>Title: The Ultimate Austin Segway Tour</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13312,7 +13312,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B855" t="inlineStr"/>
@@ -13342,7 +13342,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P1</t>
+          <t>PRODUCTCODE: 74447P5</t>
         </is>
       </c>
       <c r="B857" t="inlineStr"/>
@@ -13357,7 +13357,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour offers one-on-one rider training and a friendly orientation. North Austin has a lot to offer, and Segway tours are a great way to explore.</t>
+          <t>Summarized description: Tour Austin Weird in the best way possible. We have conducted safe tours for just over 14 years now in Austin, Texas. Meet us inside Paradise Smoothies at 10910 Domain Drive.</t>
         </is>
       </c>
       <c r="B858" t="inlineStr"/>
@@ -13372,7 +13372,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Title: Keep Austin Weird Segway Tour</t>
+          <t>Title: Austin Segway Tour</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B860" t="inlineStr"/>
@@ -13417,7 +13417,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19103P2</t>
+          <t>PRODUCTCODE: 74447P1</t>
         </is>
       </c>
       <c r="B862" t="inlineStr"/>
@@ -13432,7 +13432,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Summarized description: 2-hour guided Segway tour of downtown Austin. Ride past famous murals, graffiti, and other colorful oddities of downtown. Transportation to/from the departure point is not included.</t>
+          <t>Summarized description: Segway tour offers one-on-one rider training and a friendly orientation. North Austin has a lot to offer, and Segway tours are a great way to explore.</t>
         </is>
       </c>
       <c r="B863" t="inlineStr"/>
@@ -13447,7 +13447,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Title: Austin Street Art Segway Tour</t>
+          <t>Title: Keep Austin Weird Segway Tour</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13462,7 +13462,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B865" t="inlineStr"/>
@@ -13477,7 +13477,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B866" t="inlineStr"/>
@@ -13492,7 +13492,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P5</t>
+          <t>PRODUCTCODE: 19103P2</t>
         </is>
       </c>
       <c r="B867" t="inlineStr"/>
@@ -13507,7 +13507,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Summarized description: South Congress Ave. is Austin's boutique and vintage shopping mecca. Avoid parking hassles by using a Segway. Take a tour of Austin's most iconic mural.</t>
+          <t>Summarized description: 2-hour guided Segway tour of downtown Austin. Ride past famous murals, graffiti, and other colorful oddities of downtown. Transportation to/from the departure point is not included.</t>
         </is>
       </c>
       <c r="B868" t="inlineStr"/>
@@ -13522,7 +13522,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Title: Austin's only 'South of the River' Segway Tour</t>
+          <t>Title: Austin Street Art Segway Tour</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B871" t="inlineStr"/>
@@ -13567,7 +13567,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P11</t>
+          <t>PRODUCTCODE: 73370P5</t>
         </is>
       </c>
       <c r="B872" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
+          <t>Summarized description: South Congress Ave. is Austin's boutique and vintage shopping mecca. Avoid parking hassles by using a Segway. Take a tour of Austin's most iconic mural.</t>
         </is>
       </c>
       <c r="B873" t="inlineStr"/>
@@ -13597,7 +13597,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Title: Private Segway Tour of Austin</t>
+          <t>Title: Austin's only 'South of the River' Segway Tour</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13612,7 +13612,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B875" t="inlineStr"/>
@@ -13627,7 +13627,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Shopping and Fashion', 'City Tours']</t>
         </is>
       </c>
       <c r="B876" t="inlineStr"/>
@@ -13642,7 +13642,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P9</t>
+          <t>PRODUCTCODE: 73370P11</t>
         </is>
       </c>
       <c r="B877" t="inlineStr"/>
@@ -13657,7 +13657,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>Summarized description: Take a Segway tour of beautiful North Austin. Start with a professional and knowledgeable guide giving you a personal orientation. Then, get a guided tour of the history and culture that makes Austin unique.</t>
+          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
         </is>
       </c>
       <c r="B878" t="inlineStr"/>
@@ -13672,7 +13672,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Title: Ultimate Austin Segway Tour</t>
+          <t>Title: Private Segway Tour of Austin</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13687,7 +13687,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B880" t="inlineStr"/>
@@ -13702,7 +13702,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSHAUNT</t>
+          <t>PRODUCTCODE: 74447P9</t>
         </is>
       </c>
       <c r="B882" t="inlineStr"/>
@@ -13732,7 +13732,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is home to one of the world’s largest urban bat colonies that emerge at night. You’ll also see the still-standing Austin Moonlight Towers, built in the 19th century after a serial killer plagued the city. Throughout your tour, you'll hear entertaining stories and facts about Austin.</t>
+          <t>Summarized description: Take a Segway tour of beautiful North Austin. Start with a professional and knowledgeable guide giving you a personal orientation. Then, get a guided tour of the history and culture that makes Austin unique.</t>
         </is>
       </c>
       <c r="B883" t="inlineStr"/>
@@ -13747,7 +13747,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Title: Haunted Austin and Bat Bridge Segway Tour</t>
+          <t>Title: Ultimate Austin Segway Tour</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13777,7 +13777,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P6</t>
+          <t>PRODUCTCODE: 74447P7</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour lets you explore the sights of the Domain faster than you ever could on foot. Explore destinations such as the nightlife of Rock Rose Avenue, the scenic nature of the Balcones District Park, and the many other sights.</t>
+          <t>Summarized description: 90 minute Segway Sightseeing tour of North Austin. One-on-one rider training and orientation. See all that downtown Austin has to offer.</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Title: Austin's Only Local Segway Tour</t>
+          <t>Title: Austin Early Bird Segway Tour with a Local Guide</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P7</t>
+          <t>PRODUCTCODE: 74447P4</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: 90 minute Segway Sightseeing tour of North Austin. One-on-one rider training and orientation. See all that downtown Austin has to offer.</t>
+          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Title: Austin Early Bird Segway Tour with a Local Guide</t>
+          <t>Title: Historic Austin Segway Tour</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P4</t>
+          <t>PRODUCTCODE: 5682AUSCITY</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
+          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Title: Historic Austin Segway Tour</t>
+          <t>Title: Austin Sightseeing Segway Tour</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSCITY</t>
+          <t>PRODUCTCODE: 19103P1</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
+          <t>Summarized description: Take a trip back to Austin's sordid past with tales of tragedy, murder, and unexplainable mystery. This 90-minute segway tour will take you on a guided journey that visits the Capitol, the Driskill Hotel, and other spectacular haunts.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: Austin Sightseeing Segway Tour</t>
+          <t>Title: Austin Haunted Legends Segway Tour</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19103P1</t>
+          <t>PRODUCTCODE: 5682AUSDOWN</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: Take a trip back to Austin's sordid past with tales of tragedy, murder, and unexplainable mystery. This 90-minute segway tour will take you on a guided journey that visits the Capitol, the Driskill Hotel, and other spectacular haunts.</t>
+          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: Austin Haunted Legends Segway Tour</t>
+          <t>Title: Downtown Austin Segway Tour</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSDOWN</t>
+          <t>PRODUCTCODE: 5682AUSHIS</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
+          <t>Summarized description: 2.5-hour Segway tour will take you to the city’s many historical sites, scenic locations and modern-day cultural hubs. Explore the trendy Warehouse District, pedestrian-friendly 2nd Street District and 6th Street, the heart of the live entertainment scene.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Segway Tour</t>
+          <t>Title: Ultimate Austin Segway Tour: Historical Sights and Modern Highlights</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSHIS</t>
+          <t>PRODUCTCODE: 74447P10</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: 2.5-hour Segway tour will take you to the city’s many historical sites, scenic locations and modern-day cultural hubs. Explore the trendy Warehouse District, pedestrian-friendly 2nd Street District and 6th Street, the heart of the live entertainment scene.</t>
+          <t>Summarized description: Take our Beat the Heat Austin Segway Tour! Ride a Segway around our beautiful city before the heat and crowd shows up. Looking to get ahead of the Texas heat, but still see what Austin has to offer?</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Ultimate Austin Segway Tour: Historical Sights and Modern Highlights</t>
+          <t>Title: Beat the Heat Austin Segway Tour</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P10</t>
+          <t>PRODUCTCODE: 186429P1</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: Take our Beat the Heat Austin Segway Tour! Ride a Segway around our beautiful city before the heat and crowd shows up. Looking to get ahead of the Texas heat, but still see what Austin has to offer?</t>
+          <t>Summarized description: The 2.5-hour Segway tour is offered from March to October. See the Texas State Capitol Building, Lady Bird Lake, Austin Convention Center, and more. Hear the ghostly tales behind Austin's historic buildings and famous landmarks.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: Beat the Heat Austin Segway Tour</t>
+          <t>Title: Our Austin's Ghost and Bat By Segwaying</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P8</t>
+          <t>PRODUCTCODE: 87115P77</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
+          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Austin Private Tour</t>
+          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P77</t>
+          <t>PRODUCTCODE: 356901P1</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
+          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
+          <t>Title: The Best of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172361P1</t>
+          <t>PRODUCTCODE: 5663MUSIC</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: A tour with Mackphotography Atx is going to include a little bit of local lore, some current facts and ongoings in the city and central texas. Mack will focus on some of the best locations to photograph Austin and Central Texas bar none.</t>
+          <t>Summarized description: Follow a local musician around Austin to discover why this city’s touted as the ‘Live Music Capital of the World’ Ride past renowned music venues including the Continental Club and Victory Grill. Then, on a rooftop deck overlooking Lady Bird Lake and downtown Austin, you’ll be treated to a live musical performance while admiring a gorgeous sunset.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Photo Tour</t>
+          <t>Title: Austin Live Music and Electric Bike Tour</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Entertainment', 'Performing Arts', 'City Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 356901P1</t>
+          <t>PRODUCTCODE: 402244P1</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
+          <t>Summarized description: Take a tour of some of Austin's most iconic sights and landmarks. Led by an experienced local photographer, this personalized walk takes you through some of the city's most famous sights.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: The Best of Austin Private Walking Tour</t>
+          <t>Title: Photo Activity in Austin with Portrait Photographer</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 49202P5</t>
+          <t>PRODUCTCODE: 133277P4</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: The UT-Austin campus boasts an extensive and diverse history dating back to 1883. This tour is open to the public and the number of participants usually ranges from 5-10 runners.</t>
+          <t>Summarized description: Austin's pathways and trails present the perfect opportunity to cruise and soak in the culture. Navigating the city on our electric bikes, you get to see things you would normally drive past.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: University of Texas Austin 5K Tour</t>
+          <t>Title: See, Eat, Ride - Austin Electric Bike Tour | MOD BIKES</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 133277P4</t>
+          <t>PRODUCTCODE: 133277P2</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Austin's pathways and trails present the perfect opportunity to cruise and soak in the culture. Navigating the city on our electric bikes, you get to see things you would normally drive past.</t>
+          <t>Summarized description: Take any MOD for a real Austin adventure; your first hour is on the house. Take a tour of the Austin Museum of Natural History. Visit the Museum of American History.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: See, Eat, Ride - Austin Electric Bike Tour | MOD BIKES</t>
+          <t xml:space="preserve">Title: Electric bike guided tour </t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 133277P2</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15379,81 +15379,6 @@
       <c r="H992" t="inlineStr"/>
       <c r="I992" t="inlineStr"/>
     </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>Summarized description: Take any MOD for a real Austin adventure; your first hour is on the house. Take a tour of the Austin Museum of Natural History. Visit the Museum of American History.</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr"/>
-      <c r="C993" t="inlineStr"/>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr"/>
-      <c r="I993" t="inlineStr"/>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Electric bike guided tour </t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr"/>
-      <c r="C994" t="inlineStr"/>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr"/>
-      <c r="I994" t="inlineStr"/>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr"/>
-      <c r="C995" t="inlineStr"/>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr"/>
-      <c r="I995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr"/>
-      <c r="C996" t="inlineStr"/>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr"/>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr"/>
-      <c r="I996" t="inlineStr"/>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B997" t="inlineStr"/>
-      <c r="C997" t="inlineStr"/>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr"/>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr"/>
-      <c r="I997" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
